--- a/Balance.xlsx
+++ b/Balance.xlsx
@@ -1698,7 +1698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2420,6 +2420,20 @@
         <v>67</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Total different products: 251</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Total different authors: 183</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
